--- a/out/test/Figori_algorithm_12.xlsx
+++ b/out/test/Figori_algorithm_12.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.70679999999999998</v>
+        <v>0.70245000000000002</v>
       </c>
       <c r="B1">
-        <v>0.2717</v>
+        <v>0.45884999999999998</v>
       </c>
       <c r="C1">
-        <v>0.45529999999999998</v>
+        <v>0.71255000000000002</v>
       </c>
       <c r="D1">
-        <v>0.68935000000000002</v>
+        <v>0.70279999999999998</v>
       </c>
       <c r="E1">
-        <v>0.69504999999999995</v>
+        <v>0.69404999999999994</v>
       </c>
       <c r="F1">
-        <v>0.68910000000000005</v>
+        <v>0.2712</v>
       </c>
       <c r="G1">
-        <v>0.45165</v>
+        <v>0.68694999999999995</v>
       </c>
       <c r="H1">
-        <v>0.70974999999999999</v>
+        <v>0.45579999999999998</v>
       </c>
       <c r="I1">
-        <v>0.70709999999999995</v>
+        <v>0.27615000000000001</v>
       </c>
       <c r="J1">
-        <v>0.69345000000000001</v>
+        <v>0.27625</v>
       </c>
       <c r="K1">
-        <v>0.45695000000000002</v>
+        <v>0.45034999999999997</v>
       </c>
       <c r="L1">
-        <v>0.26979999999999998</v>
+        <v>0.27415</v>
       </c>
       <c r="M1">
-        <v>0.68530000000000002</v>
+        <v>0.69420000000000004</v>
       </c>
       <c r="N1">
-        <v>0.45145000000000002</v>
+        <v>0.68279999999999996</v>
       </c>
       <c r="O1">
-        <v>0.70745000000000002</v>
+        <v>0.27339999999999998</v>
       </c>
       <c r="P1">
-        <v>0.27439999999999998</v>
+        <v>0.27195000000000003</v>
       </c>
       <c r="Q1">
-        <v>0.71209999999999996</v>
+        <v>0.69115000000000004</v>
       </c>
       <c r="R1">
-        <v>0.69489999999999996</v>
+        <v>0.70635000000000003</v>
       </c>
       <c r="S1">
-        <v>0.45619999999999999</v>
+        <v>0.70760000000000001</v>
       </c>
       <c r="T1">
-        <v>0.6915</v>
+        <v>0.68374999999999997</v>
       </c>
       <c r="U1">
+        <v>0.71360000000000001</v>
+      </c>
+      <c r="V1">
+        <v>0.68694999999999995</v>
+      </c>
+      <c r="W1">
+        <v>0.71120000000000005</v>
+      </c>
+      <c r="X1">
+        <v>0.70625000000000004</v>
+      </c>
+      <c r="Y1">
+        <v>0.45334999999999998</v>
+      </c>
+      <c r="Z1">
+        <v>0.70574999999999999</v>
+      </c>
+      <c r="AA1">
+        <v>0.70235000000000003</v>
+      </c>
+      <c r="AB1">
+        <v>0.69325000000000003</v>
+      </c>
+      <c r="AC1">
+        <v>0.70609999999999995</v>
+      </c>
+      <c r="AD1">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="AE1">
+        <v>0.69245000000000001</v>
+      </c>
+      <c r="AF1">
+        <v>0.45465</v>
+      </c>
+      <c r="AG1">
+        <v>0.27160000000000001</v>
+      </c>
+      <c r="AH1">
+        <v>0.70635000000000003</v>
+      </c>
+      <c r="AI1">
+        <v>0.45384999999999998</v>
+      </c>
+      <c r="AJ1">
+        <v>0.69279999999999997</v>
+      </c>
+      <c r="AK1">
+        <v>0.27065</v>
+      </c>
+      <c r="AL1">
+        <v>0.27560000000000001</v>
+      </c>
+      <c r="AM1">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="AN1">
         <v>0.69594999999999996</v>
       </c>
-      <c r="V1">
-        <v>0.27179999999999999</v>
-      </c>
-      <c r="W1">
-        <v>0.68705000000000005</v>
-      </c>
-      <c r="X1">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="Y1">
-        <v>0.70194999999999996</v>
-      </c>
-      <c r="Z1">
-        <v>0.71350000000000002</v>
-      </c>
-      <c r="AA1">
-        <v>0.2722</v>
-      </c>
-      <c r="AB1">
-        <v>0.70569999999999999</v>
-      </c>
-      <c r="AC1">
-        <v>0.70645000000000002</v>
-      </c>
-      <c r="AD1">
-        <v>0.27105000000000001</v>
-      </c>
-      <c r="AE1">
-        <v>0.71084999999999998</v>
-      </c>
-      <c r="AF1">
-        <v>0.45484999999999998</v>
-      </c>
-      <c r="AG1">
-        <v>0.27510000000000001</v>
-      </c>
-      <c r="AH1">
-        <v>0.27584999999999998</v>
-      </c>
-      <c r="AI1">
-        <v>0.69284999999999997</v>
-      </c>
-      <c r="AJ1">
-        <v>0.71835000000000004</v>
-      </c>
-      <c r="AK1">
-        <v>0.26490000000000002</v>
-      </c>
-      <c r="AL1">
-        <v>0.68715000000000004</v>
-      </c>
-      <c r="AM1">
-        <v>0.27629999999999999</v>
-      </c>
-      <c r="AN1">
-        <v>0.27465000000000001</v>
-      </c>
       <c r="AO1">
-        <v>0.26795000000000002</v>
+        <v>0.45415</v>
       </c>
       <c r="AP1">
-        <v>0.68269999999999997</v>
+        <v>0.69474999999999998</v>
       </c>
       <c r="AQ1">
-        <v>0.68910000000000005</v>
+        <v>0.70994999999999997</v>
       </c>
       <c r="AR1">
-        <v>0.69240000000000002</v>
+        <v>0.27534999999999998</v>
       </c>
       <c r="AS1">
-        <v>0.71425000000000005</v>
+        <v>0.70630000000000004</v>
       </c>
       <c r="AT1">
-        <v>0.68935000000000002</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="AU1">
-        <v>0.26950000000000002</v>
+        <v>0.45365</v>
       </c>
       <c r="AV1">
-        <v>0.45479999999999998</v>
+        <v>0.69935000000000003</v>
       </c>
       <c r="AW1">
-        <v>0.69404999999999994</v>
+        <v>0.45190000000000002</v>
       </c>
       <c r="AX1">
-        <v>0.7117</v>
+        <v>0.71499999999999997</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.68520000000000003</v>
+        <v>0.69825000000000004</v>
       </c>
       <c r="B2">
-        <v>0.27305000000000001</v>
+        <v>0.43309999999999998</v>
       </c>
       <c r="C2">
-        <v>0.43020000000000003</v>
+        <v>0.68684999999999996</v>
       </c>
       <c r="D2">
-        <v>0.67064999999999997</v>
+        <v>0.69064999999999999</v>
       </c>
       <c r="E2">
-        <v>0.72250000000000003</v>
+        <v>0.68984999999999996</v>
       </c>
       <c r="F2">
-        <v>0.94115000000000004</v>
+        <v>0.26240000000000002</v>
       </c>
       <c r="G2">
-        <v>0.44019999999999998</v>
+        <v>0.66835</v>
       </c>
       <c r="H2">
-        <v>0.69215000000000004</v>
+        <v>0.44169999999999998</v>
       </c>
       <c r="I2">
-        <v>0.70355000000000001</v>
+        <v>0.48754999999999998</v>
       </c>
       <c r="J2">
-        <v>0.68335000000000001</v>
+        <v>0.27189999999999998</v>
       </c>
       <c r="K2">
-        <v>0.43595</v>
+        <v>0.43905</v>
       </c>
       <c r="L2">
-        <v>0.26450000000000001</v>
+        <v>0.26185000000000003</v>
       </c>
       <c r="M2">
-        <v>0.67554999999999998</v>
+        <v>0.67889999999999995</v>
       </c>
       <c r="N2">
-        <v>0.43990000000000001</v>
+        <v>0.67079999999999995</v>
       </c>
       <c r="O2">
-        <v>0.70115000000000005</v>
+        <v>0.26690000000000003</v>
       </c>
       <c r="P2">
-        <v>0.2878</v>
+        <v>0.28465000000000001</v>
       </c>
       <c r="Q2">
-        <v>0.69264999999999999</v>
+        <v>0.69484999999999997</v>
       </c>
       <c r="R2">
-        <v>0.92169999999999996</v>
+        <v>0.68754999999999999</v>
       </c>
       <c r="S2">
-        <v>0.43995000000000001</v>
+        <v>0.68920000000000003</v>
       </c>
       <c r="T2">
-        <v>0.67859999999999998</v>
+        <v>0.67235</v>
       </c>
       <c r="U2">
-        <v>0.6643</v>
+        <v>0.69384999999999997</v>
       </c>
       <c r="V2">
-        <v>0.25779999999999997</v>
+        <v>0.65890000000000004</v>
       </c>
       <c r="W2">
-        <v>0.255</v>
+        <v>0.70140000000000002</v>
       </c>
       <c r="X2">
-        <v>0.27124999999999999</v>
+        <v>0.66180000000000005</v>
       </c>
       <c r="Y2">
-        <v>0.66554999999999997</v>
+        <v>0.4405</v>
       </c>
       <c r="Z2">
-        <v>0.68745000000000001</v>
+        <v>0.68684999999999996</v>
       </c>
       <c r="AA2">
-        <v>0.25729999999999997</v>
+        <v>0.69725000000000004</v>
       </c>
       <c r="AB2">
-        <v>0.70484999999999998</v>
+        <v>0.68359999999999999</v>
       </c>
       <c r="AC2">
-        <v>0.69225000000000003</v>
+        <v>0.92774999999999996</v>
       </c>
       <c r="AD2">
-        <v>0.26374999999999998</v>
+        <v>0.26705000000000001</v>
       </c>
       <c r="AE2">
-        <v>0.69220000000000004</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="AF2">
-        <v>0.71740000000000004</v>
+        <v>0.44295000000000001</v>
       </c>
       <c r="AG2">
-        <v>0.26824999999999999</v>
+        <v>0.28549999999999998</v>
       </c>
       <c r="AH2">
-        <v>0.27295000000000003</v>
+        <v>0.68989999999999996</v>
       </c>
       <c r="AI2">
-        <v>0.69510000000000005</v>
+        <v>0.43680000000000002</v>
       </c>
       <c r="AJ2">
-        <v>0.68015000000000003</v>
+        <v>0.66244999999999998</v>
       </c>
       <c r="AK2">
-        <v>0.25985000000000003</v>
+        <v>0.26324999999999998</v>
       </c>
       <c r="AL2">
-        <v>0.67459999999999998</v>
+        <v>0.26334999999999997</v>
       </c>
       <c r="AM2">
-        <v>0.26795000000000002</v>
+        <v>0.69940000000000002</v>
       </c>
       <c r="AN2">
-        <v>0.67069999999999996</v>
+        <v>0.66279999999999994</v>
       </c>
       <c r="AO2">
-        <v>0.25645000000000001</v>
+        <v>0.44624999999999998</v>
       </c>
       <c r="AP2">
-        <v>0.2596</v>
+        <v>0.66479999999999995</v>
       </c>
       <c r="AQ2">
-        <v>0.67369999999999997</v>
+        <v>0.69079999999999997</v>
       </c>
       <c r="AR2">
-        <v>0.66774999999999995</v>
+        <v>0.27660000000000001</v>
       </c>
       <c r="AS2">
-        <v>0.69369999999999998</v>
+        <v>0.69564999999999999</v>
       </c>
       <c r="AT2">
-        <v>0.6764</v>
+        <v>0.96220000000000006</v>
       </c>
       <c r="AU2">
-        <v>0.26319999999999999</v>
+        <v>0.44864999999999999</v>
       </c>
       <c r="AV2">
-        <v>0.43190000000000001</v>
+        <v>0.6865</v>
       </c>
       <c r="AW2">
-        <v>0.71819999999999995</v>
+        <v>0.4511</v>
       </c>
       <c r="AX2">
-        <v>0.68494999999999995</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.68110000000000004</v>
+        <v>0.67305000000000004</v>
       </c>
       <c r="B3">
-        <v>0.50675000000000003</v>
+        <v>0.40865000000000001</v>
       </c>
       <c r="C3">
-        <v>0.41865000000000002</v>
+        <v>0.6593</v>
       </c>
       <c r="D3">
-        <v>0.93779999999999997</v>
+        <v>0.64610000000000001</v>
       </c>
       <c r="E3">
-        <v>0.89980000000000004</v>
+        <v>0.66174999999999995</v>
       </c>
       <c r="F3">
-        <v>0.50700000000000001</v>
+        <v>0.68859999999999999</v>
       </c>
       <c r="G3">
-        <v>0.40105000000000002</v>
+        <v>0.62885000000000002</v>
       </c>
       <c r="H3">
-        <v>0.67130000000000001</v>
+        <v>0.40675</v>
       </c>
       <c r="I3">
-        <v>0.93600000000000005</v>
+        <v>0.87160000000000004</v>
       </c>
       <c r="J3">
-        <v>0.64659999999999995</v>
+        <v>0.24385000000000001</v>
       </c>
       <c r="K3">
-        <v>0.68</v>
+        <v>0.68115000000000003</v>
       </c>
       <c r="L3">
-        <v>0.25174999999999997</v>
+        <v>0.28860000000000002</v>
       </c>
       <c r="M3">
-        <v>0.68264999999999998</v>
+        <v>0.71194999999999997</v>
       </c>
       <c r="N3">
-        <v>0.41570000000000001</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="O3">
-        <v>0.68289999999999995</v>
+        <v>0.27410000000000001</v>
       </c>
       <c r="P3">
-        <v>0.27300000000000002</v>
+        <v>0.29775000000000001</v>
       </c>
       <c r="Q3">
-        <v>0.74180000000000001</v>
+        <v>0.64810000000000001</v>
       </c>
       <c r="R3">
-        <v>0.91090000000000004</v>
+        <v>0.82340000000000002</v>
       </c>
       <c r="S3">
-        <v>0.4168</v>
+        <v>0.66439999999999999</v>
       </c>
       <c r="T3">
-        <v>0.73404999999999998</v>
+        <v>0.65744999999999998</v>
       </c>
       <c r="U3">
-        <v>0.66110000000000002</v>
+        <v>0.65249999999999997</v>
       </c>
       <c r="V3">
-        <v>0.26745000000000002</v>
+        <v>0.65234999999999999</v>
       </c>
       <c r="W3">
-        <v>0.25054999999999999</v>
+        <v>0.66544999999999999</v>
       </c>
       <c r="X3">
-        <v>0.66505000000000003</v>
+        <v>0.60550000000000004</v>
       </c>
       <c r="Y3">
         <v>0.65969999999999995</v>
       </c>
       <c r="Z3">
-        <v>0.66785000000000005</v>
+        <v>0.94535000000000002</v>
       </c>
       <c r="AA3">
-        <v>4.4650000000000002E-2</v>
+        <v>0.67179999999999995</v>
       </c>
       <c r="AB3">
-        <v>0.66979999999999995</v>
+        <v>0.68845000000000001</v>
       </c>
       <c r="AC3">
-        <v>0.93279999999999996</v>
+        <v>0.92284999999999995</v>
       </c>
       <c r="AD3">
-        <v>0.85960000000000003</v>
+        <v>0.25014999999999998</v>
       </c>
       <c r="AE3">
-        <v>0.66995000000000005</v>
+        <v>0.25464999999999999</v>
       </c>
       <c r="AF3">
-        <v>0.92615000000000003</v>
+        <v>0.49149999999999999</v>
       </c>
       <c r="AG3">
-        <v>0.87814999999999999</v>
+        <v>0.26415</v>
       </c>
       <c r="AH3">
-        <v>0.26374999999999998</v>
+        <v>0.67459999999999998</v>
       </c>
       <c r="AI3">
-        <v>0.65385000000000004</v>
+        <v>0.4728</v>
       </c>
       <c r="AJ3">
-        <v>0.66295000000000004</v>
+        <v>0.69915000000000005</v>
       </c>
       <c r="AK3">
-        <v>0.2465</v>
+        <v>0.24160000000000001</v>
       </c>
       <c r="AL3">
-        <v>0.63134999999999997</v>
+        <v>0.23930000000000001</v>
       </c>
       <c r="AM3">
-        <v>0.24979999999999999</v>
+        <v>0.91705000000000003</v>
       </c>
       <c r="AN3">
-        <v>0.26119999999999999</v>
+        <v>0.64075000000000004</v>
       </c>
       <c r="AO3">
-        <v>0.2349</v>
+        <v>0.42554999999999998</v>
       </c>
       <c r="AP3">
-        <v>0.23830000000000001</v>
+        <v>0.66569999999999996</v>
       </c>
       <c r="AQ3">
-        <v>0.64639999999999997</v>
+        <v>0.67925000000000002</v>
       </c>
       <c r="AR3">
-        <v>0.68320000000000003</v>
+        <v>0.27055000000000001</v>
       </c>
       <c r="AS3">
-        <v>0.69364999999999999</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="AT3">
-        <v>0.62539999999999996</v>
+        <v>0.95269999999999999</v>
       </c>
       <c r="AU3">
-        <v>0.27</v>
+        <v>0.41444999999999999</v>
       </c>
       <c r="AV3">
-        <v>0.38290000000000002</v>
+        <v>0.70084999999999997</v>
       </c>
       <c r="AW3">
-        <v>0.69664999999999999</v>
+        <v>0.42954999999999999</v>
       </c>
       <c r="AX3">
-        <v>0.25835000000000002</v>
+        <v>0.66835</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.88124999999999998</v>
+        <v>0.65480000000000005</v>
       </c>
       <c r="B4">
-        <v>0.50534999999999997</v>
+        <v>0.50949999999999995</v>
       </c>
       <c r="C4">
-        <v>0.4788</v>
+        <v>0.61919999999999997</v>
       </c>
       <c r="D4">
-        <v>0.88095000000000001</v>
+        <v>0.68405000000000005</v>
       </c>
       <c r="E4">
-        <v>0.87814999999999999</v>
+        <v>0.61555000000000004</v>
       </c>
       <c r="F4">
-        <v>0.87975000000000003</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="G4">
-        <v>0.37454999999999999</v>
+        <v>0.24224999999999999</v>
       </c>
       <c r="H4">
-        <v>0.60004999999999997</v>
+        <v>0.47015000000000001</v>
       </c>
       <c r="I4">
-        <v>0.87344999999999995</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="J4">
-        <v>0.63105</v>
+        <v>0.25929999999999997</v>
       </c>
       <c r="K4">
-        <v>0.78700000000000003</v>
+        <v>0.69484999999999997</v>
       </c>
       <c r="L4">
-        <v>0.22689999999999999</v>
+        <v>0.27579999999999999</v>
       </c>
       <c r="M4">
-        <v>0.95104999999999995</v>
+        <v>0.63990000000000002</v>
       </c>
       <c r="N4">
-        <v>0.47725000000000001</v>
+        <v>0.89410000000000001</v>
       </c>
       <c r="O4">
-        <v>0.89615</v>
+        <v>0.27255000000000001</v>
       </c>
       <c r="P4">
-        <v>0.29544999999999999</v>
+        <v>0.30730000000000002</v>
       </c>
       <c r="Q4">
-        <v>0.75744999999999996</v>
+        <v>0.81940000000000002</v>
       </c>
       <c r="R4">
-        <v>0.90885000000000005</v>
+        <v>0.1128</v>
       </c>
       <c r="S4">
-        <v>0.82150000000000001</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="T4">
-        <v>0.72594999999999998</v>
+        <v>0.63305</v>
       </c>
       <c r="U4">
-        <v>0.85019999999999996</v>
+        <v>0.26579999999999998</v>
       </c>
       <c r="V4">
-        <v>0.24845</v>
+        <v>0.28239999999999998</v>
       </c>
       <c r="W4">
-        <v>0.28670000000000001</v>
+        <v>0.30180000000000001</v>
       </c>
       <c r="X4">
-        <v>0.63514999999999999</v>
+        <v>0.33160000000000001</v>
       </c>
       <c r="Y4">
-        <v>0.33729999999999999</v>
+        <v>0.69569999999999999</v>
       </c>
       <c r="Z4">
-        <v>0.64015</v>
+        <v>0.53180000000000005</v>
       </c>
       <c r="AA4">
-        <v>6.1249999999999999E-2</v>
+        <v>0.63470000000000004</v>
       </c>
       <c r="AB4">
-        <v>0.60704999999999998</v>
+        <v>0.66249999999999998</v>
       </c>
       <c r="AC4">
-        <v>0.92749999999999999</v>
+        <v>0.92544999999999999</v>
       </c>
       <c r="AD4">
-        <v>0.48980000000000001</v>
+        <v>0.49070000000000003</v>
       </c>
       <c r="AE4">
-        <v>0.41604999999999998</v>
+        <v>0.29754999999999998</v>
       </c>
       <c r="AF4">
-        <v>0.89854999999999996</v>
+        <v>0.49130000000000001</v>
       </c>
       <c r="AG4">
-        <v>0.83030000000000004</v>
+        <v>0.53220000000000001</v>
       </c>
       <c r="AH4">
-        <v>0.28110000000000002</v>
+        <v>0.67405000000000004</v>
       </c>
       <c r="AI4">
-        <v>0.26824999999999999</v>
+        <v>0.29275000000000001</v>
       </c>
       <c r="AJ4">
-        <v>0.61285000000000001</v>
+        <v>0.95989999999999998</v>
       </c>
       <c r="AK4">
-        <v>0.29289999999999999</v>
+        <v>0.61665000000000003</v>
       </c>
       <c r="AL4">
-        <v>0.69589999999999996</v>
+        <v>0.29015000000000002</v>
       </c>
       <c r="AM4">
-        <v>0.25655</v>
+        <v>0.87380000000000002</v>
       </c>
       <c r="AN4">
-        <v>0.29275000000000001</v>
+        <v>0.30814999999999998</v>
       </c>
       <c r="AO4">
-        <v>0.23630000000000001</v>
+        <v>0.38229999999999997</v>
       </c>
       <c r="AP4">
-        <v>0.28570000000000001</v>
+        <v>0.28765000000000002</v>
       </c>
       <c r="AQ4">
-        <v>0.60985</v>
+        <v>0.91559999999999997</v>
       </c>
       <c r="AR4">
-        <v>0.93855</v>
+        <v>0.29370000000000002</v>
       </c>
       <c r="AS4">
-        <v>0.69</v>
+        <v>0.71545000000000003</v>
       </c>
       <c r="AT4">
-        <v>0.55059999999999998</v>
+        <v>0.90390000000000004</v>
       </c>
       <c r="AU4">
-        <v>0.29110000000000003</v>
+        <v>0.62709999999999999</v>
       </c>
       <c r="AV4">
-        <v>0.68545</v>
+        <v>0.67789999999999995</v>
       </c>
       <c r="AW4">
-        <v>0.73785000000000001</v>
+        <v>0.38164999999999999</v>
       </c>
       <c r="AX4">
-        <v>0.26600000000000001</v>
+        <v>0.69159999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.45245000000000002</v>
+        <v>0.58525000000000005</v>
       </c>
       <c r="B5">
-        <v>0.11695</v>
+        <v>0.41470000000000001</v>
       </c>
       <c r="C5">
-        <v>0.75654999999999994</v>
+        <v>0.54174999999999995</v>
       </c>
       <c r="D5">
-        <v>0.89624999999999999</v>
+        <v>0.25014999999999998</v>
       </c>
       <c r="E5">
-        <v>0.50465000000000004</v>
+        <v>0.85934999999999995</v>
       </c>
       <c r="F5">
-        <v>0.77769999999999995</v>
+        <v>0.89910000000000001</v>
       </c>
       <c r="G5">
-        <v>0.38545000000000001</v>
+        <v>0.29389999999999999</v>
       </c>
       <c r="H5">
-        <v>0.66490000000000005</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="I5">
-        <v>3.0550000000000001E-2</v>
+        <v>0.76939999999999997</v>
       </c>
       <c r="J5">
-        <v>0.26774999999999999</v>
+        <v>0.21229999999999999</v>
       </c>
       <c r="K5">
-        <v>0.97619999999999996</v>
+        <v>0.70855000000000001</v>
       </c>
       <c r="L5">
-        <v>0.25874999999999998</v>
+        <v>5.9450000000000003E-2</v>
       </c>
       <c r="M5">
-        <v>0.95794999999999997</v>
+        <v>0.3523</v>
       </c>
       <c r="N5">
-        <v>0.75690000000000002</v>
+        <v>0.43480000000000002</v>
       </c>
       <c r="O5">
-        <v>0.85794999999999999</v>
+        <v>0.28944999999999999</v>
       </c>
       <c r="P5">
-        <v>0.58220000000000005</v>
+        <v>0.27760000000000001</v>
       </c>
       <c r="Q5">
-        <v>0.54425000000000001</v>
+        <v>0.93259999999999998</v>
       </c>
       <c r="R5">
-        <v>0.54474999999999996</v>
+        <v>0.1709</v>
       </c>
       <c r="S5">
-        <v>0.85214999999999996</v>
+        <v>0.27960000000000002</v>
       </c>
       <c r="T5">
-        <v>0.37014999999999998</v>
+        <v>0.56215000000000004</v>
       </c>
       <c r="U5">
-        <v>0.58714999999999995</v>
+        <v>0.71614999999999995</v>
       </c>
       <c r="V5">
-        <v>0.25900000000000001</v>
+        <v>0.25024999999999997</v>
       </c>
       <c r="W5">
-        <v>0.35099999999999998</v>
+        <v>0.34175</v>
       </c>
       <c r="X5">
-        <v>0.92584999999999995</v>
+        <v>0.31369999999999998</v>
       </c>
       <c r="Y5">
-        <v>0.36695</v>
+        <v>0.64229999999999998</v>
       </c>
       <c r="Z5">
-        <v>0.47785</v>
+        <v>9.6500000000000002E-2</v>
       </c>
       <c r="AA5">
-        <v>7.8149999999999997E-2</v>
+        <v>0.61665000000000003</v>
       </c>
       <c r="AB5">
-        <v>0.56735000000000002</v>
+        <v>0.68674999999999997</v>
       </c>
       <c r="AC5">
-        <v>0.96675</v>
+        <v>0.55520000000000003</v>
       </c>
       <c r="AD5">
-        <v>0.35344999999999999</v>
+        <v>0.51505000000000001</v>
       </c>
       <c r="AE5">
-        <v>0.41930000000000001</v>
+        <v>0.29144999999999999</v>
       </c>
       <c r="AF5">
-        <v>0.79405000000000003</v>
+        <v>0.4904</v>
       </c>
       <c r="AG5">
-        <v>0.82050000000000001</v>
+        <v>0.28175</v>
       </c>
       <c r="AH5">
-        <v>0.3206</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AI5">
-        <v>0.72114999999999996</v>
+        <v>0.30535000000000001</v>
       </c>
       <c r="AJ5">
-        <v>0.59624999999999995</v>
+        <v>0.62609999999999999</v>
       </c>
       <c r="AK5">
-        <v>0.65490000000000004</v>
+        <v>0.68095000000000006</v>
       </c>
       <c r="AL5">
-        <v>0.69010000000000005</v>
+        <v>0.37819999999999998</v>
       </c>
       <c r="AM5">
-        <v>0.25019999999999998</v>
+        <v>0.87260000000000004</v>
       </c>
       <c r="AN5">
-        <v>0.31819999999999998</v>
+        <v>0.27579999999999999</v>
       </c>
       <c r="AO5">
-        <v>0.7409</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="AP5">
-        <v>0.25395000000000001</v>
+        <v>0.33634999999999998</v>
       </c>
       <c r="AQ5">
-        <v>0.61860000000000004</v>
+        <v>0.45850000000000002</v>
       </c>
       <c r="AR5">
-        <v>0.84660000000000002</v>
+        <v>0.39505000000000001</v>
       </c>
       <c r="AS5">
-        <v>0.67079999999999995</v>
+        <v>0.69525000000000003</v>
       </c>
       <c r="AT5">
-        <v>0.83799999999999997</v>
+        <v>0.89775000000000005</v>
       </c>
       <c r="AU5">
-        <v>0.68735000000000002</v>
+        <v>0.24635000000000001</v>
       </c>
       <c r="AV5">
-        <v>0.77649999999999997</v>
+        <v>0.63080000000000003</v>
       </c>
       <c r="AW5">
-        <v>0.75760000000000005</v>
+        <v>0.48580000000000001</v>
       </c>
       <c r="AX5">
-        <v>0.32485000000000003</v>
+        <v>0.71055000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.10904999999999999</v>
+        <v>0.42730000000000001</v>
       </c>
       <c r="B6">
-        <v>0.22484999999999999</v>
+        <v>0.49025000000000002</v>
       </c>
       <c r="C6">
-        <v>0.71730000000000005</v>
+        <v>0.56664999999999999</v>
       </c>
       <c r="D6">
-        <v>0.58030000000000004</v>
+        <v>0.1547</v>
       </c>
       <c r="E6">
-        <v>0.14995</v>
+        <v>0.9456</v>
       </c>
       <c r="F6">
-        <v>0.18435000000000001</v>
+        <v>0.47394999999999998</v>
       </c>
       <c r="G6">
-        <v>0.50275000000000003</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="H6">
-        <v>0.65725</v>
+        <v>0.80310000000000004</v>
       </c>
       <c r="I6">
-        <v>9.3350000000000002E-2</v>
+        <v>0.47060000000000002</v>
       </c>
       <c r="J6">
-        <v>0.79925000000000002</v>
+        <v>0.49180000000000001</v>
       </c>
       <c r="K6">
-        <v>0.96950000000000003</v>
+        <v>0.95574999999999999</v>
       </c>
       <c r="L6">
-        <v>0.63349999999999995</v>
+        <v>6.3950000000000007E-2</v>
       </c>
       <c r="M6">
-        <v>0.95825000000000005</v>
+        <v>0.26045000000000001</v>
       </c>
       <c r="N6">
-        <v>0.80015000000000003</v>
+        <v>0.1019</v>
       </c>
       <c r="O6">
-        <v>0.54120000000000001</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="P6">
-        <v>0.32145000000000001</v>
+        <v>0.23365</v>
       </c>
       <c r="Q6">
-        <v>0.67864999999999998</v>
+        <v>0.53359999999999996</v>
       </c>
       <c r="R6">
-        <v>0.49445</v>
+        <v>0.53034999999999999</v>
       </c>
       <c r="S6">
-        <v>0.92010000000000003</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="T6">
-        <v>0.3947</v>
+        <v>0.25890000000000002</v>
       </c>
       <c r="U6">
-        <v>0.60350000000000004</v>
+        <v>0.70279999999999998</v>
       </c>
       <c r="V6">
-        <v>0.50129999999999997</v>
+        <v>0.59689999999999999</v>
       </c>
       <c r="W6">
-        <v>0.43295</v>
+        <v>0.29744999999999999</v>
       </c>
       <c r="X6">
-        <v>0.93389999999999995</v>
+        <v>0.23114999999999999</v>
       </c>
       <c r="Y6">
-        <v>0.32755000000000001</v>
+        <v>0.47489999999999999</v>
       </c>
       <c r="Z6">
-        <v>0.50429999999999997</v>
+        <v>0.22625000000000001</v>
       </c>
       <c r="AA6">
-        <v>0.2273</v>
+        <v>0.81054999999999999</v>
       </c>
       <c r="AB6">
-        <v>0.6835</v>
+        <v>0.31080000000000002</v>
       </c>
       <c r="AC6">
-        <v>0.51759999999999995</v>
+        <v>0.48635</v>
       </c>
       <c r="AD6">
-        <v>0.49309999999999998</v>
+        <v>0.53115000000000001</v>
       </c>
       <c r="AE6">
-        <v>0.36940000000000001</v>
+        <v>0.4451</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.46949999999999997</v>
       </c>
       <c r="AG6">
-        <v>8.7900000000000006E-2</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="AH6">
-        <v>0.32679999999999998</v>
+        <v>0.48570000000000002</v>
       </c>
       <c r="AI6">
-        <v>0.31809999999999999</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="AJ6">
-        <v>0.56130000000000002</v>
+        <v>0.95940000000000003</v>
       </c>
       <c r="AK6">
-        <v>0.6905</v>
+        <v>0.44195000000000001</v>
       </c>
       <c r="AL6">
-        <v>0.71020000000000005</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="AM6">
-        <v>0.42080000000000001</v>
+        <v>0.2772</v>
       </c>
       <c r="AN6">
-        <v>0.38264999999999999</v>
+        <v>0.33079999999999998</v>
       </c>
       <c r="AO6">
-        <v>0.25290000000000001</v>
+        <v>0.68310000000000004</v>
       </c>
       <c r="AP6">
-        <v>0.33224999999999999</v>
+        <v>0.41205000000000003</v>
       </c>
       <c r="AQ6">
-        <v>0.68079999999999996</v>
+        <v>6.8199999999999997E-2</v>
       </c>
       <c r="AR6">
-        <v>0.10115</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="AS6">
-        <v>0.75629999999999997</v>
+        <v>0.47615000000000002</v>
       </c>
       <c r="AT6">
-        <v>0.25045000000000001</v>
+        <v>0.93974999999999997</v>
       </c>
       <c r="AU6">
-        <v>0.42309999999999998</v>
+        <v>0.13935</v>
       </c>
       <c r="AV6">
-        <v>0.24285000000000001</v>
+        <v>0.41465000000000002</v>
       </c>
       <c r="AW6">
-        <v>0.67635000000000001</v>
+        <v>0.77010000000000001</v>
       </c>
       <c r="AX6">
-        <v>0.21265000000000001</v>
+        <v>0.45390000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.215</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="B7">
-        <v>0.28465000000000001</v>
+        <v>0.78125</v>
       </c>
       <c r="C7">
-        <v>0.1578</v>
+        <v>0.98119999999999996</v>
       </c>
       <c r="D7">
-        <v>0.1439</v>
+        <v>0.20680000000000001</v>
       </c>
       <c r="E7">
-        <v>3.8199999999999998E-2</v>
+        <v>0.97904999999999998</v>
       </c>
       <c r="F7">
-        <v>0.27689999999999998</v>
+        <v>0.26345000000000002</v>
       </c>
       <c r="G7">
-        <v>0.69599999999999995</v>
+        <v>0.29830000000000001</v>
       </c>
       <c r="H7">
-        <v>0.32245000000000001</v>
+        <v>0.12145</v>
       </c>
       <c r="I7">
-        <v>6.7500000000000004E-2</v>
+        <v>0.40639999999999998</v>
       </c>
       <c r="J7">
-        <v>0.86419999999999997</v>
+        <v>0.76329999999999998</v>
       </c>
       <c r="K7">
-        <v>0.75239999999999996</v>
+        <v>0.67395000000000005</v>
       </c>
       <c r="L7">
-        <v>0.76149999999999995</v>
+        <v>0.34115000000000001</v>
       </c>
       <c r="M7">
-        <v>0.99329999999999996</v>
+        <v>0.78510000000000002</v>
       </c>
       <c r="N7">
-        <v>0.54054999999999997</v>
+        <v>0.47765000000000002</v>
       </c>
       <c r="O7">
-        <v>0.83379999999999999</v>
+        <v>0.61009999999999998</v>
       </c>
       <c r="P7">
-        <v>0.53244999999999998</v>
+        <v>0.47370000000000001</v>
       </c>
       <c r="Q7">
-        <v>0.49309999999999998</v>
+        <v>0.1961</v>
       </c>
       <c r="R7">
-        <v>6.25E-2</v>
+        <v>0.40239999999999998</v>
       </c>
       <c r="S7">
-        <v>0.7893</v>
+        <v>0.55059999999999998</v>
       </c>
       <c r="T7">
-        <v>0.44629999999999997</v>
+        <v>0.44005</v>
       </c>
       <c r="U7">
-        <v>0.68049999999999999</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="V7">
-        <v>0.90515000000000001</v>
+        <v>0.51385000000000003</v>
       </c>
       <c r="W7">
-        <v>0.35565000000000002</v>
+        <v>0.38915</v>
       </c>
       <c r="X7">
-        <v>0.90069999999999995</v>
+        <v>0.81025000000000003</v>
       </c>
       <c r="Y7">
-        <v>0.19234999999999999</v>
+        <v>0.38045000000000001</v>
       </c>
       <c r="Z7">
-        <v>0.30014999999999997</v>
+        <v>0.48089999999999999</v>
       </c>
       <c r="AA7">
-        <v>0.24055000000000001</v>
+        <v>0.36359999999999998</v>
       </c>
       <c r="AB7">
-        <v>0.52980000000000005</v>
+        <v>0.46734999999999999</v>
       </c>
       <c r="AC7">
-        <v>0.36509999999999998</v>
+        <v>0.17605000000000001</v>
       </c>
       <c r="AD7">
-        <v>0.49764999999999998</v>
+        <v>0.53849999999999998</v>
       </c>
       <c r="AE7">
-        <v>0.50105</v>
+        <v>0.60660000000000003</v>
       </c>
       <c r="AF7">
-        <v>0.78580000000000005</v>
+        <v>0.68205000000000005</v>
       </c>
       <c r="AG7">
-        <v>7.0650000000000004E-2</v>
+        <v>0.70179999999999998</v>
       </c>
       <c r="AH7">
-        <v>0.31324999999999997</v>
+        <v>0.68340000000000001</v>
       </c>
       <c r="AI7">
-        <v>0.42825000000000002</v>
+        <v>0.53090000000000004</v>
       </c>
       <c r="AJ7">
-        <v>0.18634999999999999</v>
+        <v>0.34010000000000001</v>
       </c>
       <c r="AK7">
-        <v>0.51829999999999998</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="AL7">
-        <v>0.71214999999999995</v>
+        <v>0.36554999999999999</v>
       </c>
       <c r="AM7">
-        <v>0.64065000000000005</v>
+        <v>0.39905000000000002</v>
       </c>
       <c r="AN7">
-        <v>0.44219999999999998</v>
+        <v>0.26340000000000002</v>
       </c>
       <c r="AO7">
-        <v>0.21425</v>
+        <v>0.3871</v>
       </c>
       <c r="AP7">
-        <v>0.46329999999999999</v>
+        <v>0.65685000000000004</v>
       </c>
       <c r="AQ7">
-        <v>0.73324999999999996</v>
+        <v>6.7299999999999999E-2</v>
       </c>
       <c r="AR7">
-        <v>0.51990000000000003</v>
+        <v>7.4700000000000003E-2</v>
       </c>
       <c r="AS7">
-        <v>0.53954999999999997</v>
+        <v>0.44695000000000001</v>
       </c>
       <c r="AT7">
-        <v>0.73475000000000001</v>
+        <v>0.66949999999999998</v>
       </c>
       <c r="AU7">
-        <v>0.40865000000000001</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="AV7">
-        <v>0.65400000000000003</v>
+        <v>0.8175</v>
       </c>
       <c r="AW7">
-        <v>0.1096</v>
+        <v>0.66110000000000002</v>
       </c>
       <c r="AX7">
-        <v>0.19445000000000001</v>
+        <v>0.32529999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.30445</v>
+        <v>0.52649999999999997</v>
       </c>
       <c r="B8">
-        <v>0.41804999999999998</v>
+        <v>0.44280000000000003</v>
       </c>
       <c r="C8">
-        <v>0.28010000000000002</v>
+        <v>0.49120000000000003</v>
       </c>
       <c r="D8">
-        <v>0.37619999999999998</v>
+        <v>6.9500000000000006E-2</v>
       </c>
       <c r="E8">
-        <v>0.18709999999999999</v>
+        <v>0.66039999999999999</v>
       </c>
       <c r="F8">
-        <v>0.16819999999999999</v>
+        <v>6.4199999999999993E-2</v>
       </c>
       <c r="G8">
-        <v>0.95079999999999998</v>
+        <v>0.32940000000000003</v>
       </c>
       <c r="H8">
-        <v>0.31374999999999997</v>
+        <v>0.28784999999999999</v>
       </c>
       <c r="I8">
-        <v>0.25724999999999998</v>
+        <v>0.56564999999999999</v>
       </c>
       <c r="J8">
-        <v>0.62350000000000005</v>
+        <v>0.80515000000000003</v>
       </c>
       <c r="K8">
-        <v>0.52380000000000004</v>
+        <v>0.72065000000000001</v>
       </c>
       <c r="L8">
-        <v>0.88055000000000005</v>
+        <v>0.4556</v>
       </c>
       <c r="M8">
-        <v>0.44450000000000001</v>
+        <v>0.52459999999999996</v>
       </c>
       <c r="N8">
-        <v>0.47484999999999999</v>
+        <v>0.55559999999999998</v>
       </c>
       <c r="O8">
-        <v>0.26529999999999998</v>
+        <v>0.81</v>
       </c>
       <c r="P8">
-        <v>0.502</v>
+        <v>0.67845</v>
       </c>
       <c r="Q8">
-        <v>0.90620000000000001</v>
+        <v>0.4824</v>
       </c>
       <c r="R8">
-        <v>0.10725</v>
+        <v>0.36585000000000001</v>
       </c>
       <c r="S8">
-        <v>0.70584999999999998</v>
+        <v>0.17835000000000001</v>
       </c>
       <c r="T8">
-        <v>0.22309999999999999</v>
+        <v>0.47110000000000002</v>
       </c>
       <c r="U8">
-        <v>0.33615</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="V8">
-        <v>0.79725000000000001</v>
+        <v>0.40234999999999999</v>
       </c>
       <c r="W8">
-        <v>0.24365000000000001</v>
+        <v>0.58689999999999998</v>
       </c>
       <c r="X8">
-        <v>0.39229999999999998</v>
+        <v>0.36244999999999999</v>
       </c>
       <c r="Y8">
-        <v>0.17929999999999999</v>
+        <v>0.48044999999999999</v>
       </c>
       <c r="Z8">
-        <v>0.54095000000000004</v>
+        <v>0.4723</v>
       </c>
       <c r="AA8">
-        <v>0.39439999999999997</v>
+        <v>0.35770000000000002</v>
       </c>
       <c r="AB8">
-        <v>0.51985000000000003</v>
+        <v>0.31819999999999998</v>
       </c>
       <c r="AC8">
-        <v>5.0900000000000001E-2</v>
+        <v>0.1517</v>
       </c>
       <c r="AD8">
-        <v>0.52039999999999997</v>
+        <v>0.3916</v>
       </c>
       <c r="AE8">
-        <v>0.35054999999999997</v>
+        <v>0.67259999999999998</v>
       </c>
       <c r="AF8">
-        <v>0.3997</v>
+        <v>0.61114999999999997</v>
       </c>
       <c r="AG8">
-        <v>0.183</v>
+        <v>0.67995000000000005</v>
       </c>
       <c r="AH8">
-        <v>0.54195000000000004</v>
+        <v>0.76715</v>
       </c>
       <c r="AI8">
-        <v>0.54225000000000001</v>
+        <v>0.38850000000000001</v>
       </c>
       <c r="AJ8">
-        <v>0.53664999999999996</v>
+        <v>0.53359999999999996</v>
       </c>
       <c r="AK8">
-        <v>0.81269999999999998</v>
+        <v>0.54935</v>
       </c>
       <c r="AL8">
-        <v>0.60609999999999997</v>
+        <v>0.31159999999999999</v>
       </c>
       <c r="AM8">
-        <v>0.62629999999999997</v>
+        <v>0.48970000000000002</v>
       </c>
       <c r="AN8">
-        <v>0.48725000000000002</v>
+        <v>0.69010000000000005</v>
       </c>
       <c r="AO8">
-        <v>0.12695000000000001</v>
+        <v>0.54549999999999998</v>
       </c>
       <c r="AP8">
-        <v>0.51039999999999996</v>
+        <v>0.80835000000000001</v>
       </c>
       <c r="AQ8">
-        <v>0.87895000000000001</v>
+        <v>0.38474999999999998</v>
       </c>
       <c r="AR8">
-        <v>0.38745000000000002</v>
+        <v>0.19835</v>
       </c>
       <c r="AS8">
-        <v>0.21485000000000001</v>
+        <v>0.46920000000000001</v>
       </c>
       <c r="AT8">
-        <v>0.31859999999999999</v>
+        <v>0.25950000000000001</v>
       </c>
       <c r="AU8">
-        <v>0.41860000000000003</v>
+        <v>0.56359999999999999</v>
       </c>
       <c r="AV8">
-        <v>0.52439999999999998</v>
+        <v>0.83804999999999996</v>
       </c>
       <c r="AW8">
-        <v>0.13439999999999999</v>
+        <v>0.74975000000000003</v>
       </c>
       <c r="AX8">
-        <v>0.25805</v>
+        <v>0.64770000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.47475000000000001</v>
+        <v>0.73370000000000002</v>
       </c>
       <c r="B9">
-        <v>0.27515000000000001</v>
+        <v>0.79264999999999997</v>
       </c>
       <c r="C9">
-        <v>0.47989999999999999</v>
+        <v>0.50339999999999996</v>
       </c>
       <c r="D9">
-        <v>0.5292</v>
+        <v>8.3099999999999993E-2</v>
       </c>
       <c r="E9">
-        <v>0.55759999999999998</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="F9">
-        <v>0.23719999999999999</v>
+        <v>0.24179999999999999</v>
       </c>
       <c r="G9">
-        <v>0.86429999999999996</v>
+        <v>0.36035</v>
       </c>
       <c r="H9">
-        <v>0.40870000000000001</v>
+        <v>0.52739999999999998</v>
       </c>
       <c r="I9">
-        <v>0.62219999999999998</v>
+        <v>0.65559999999999996</v>
       </c>
       <c r="J9">
-        <v>0.40975</v>
+        <v>0.67769999999999997</v>
       </c>
       <c r="K9">
-        <v>0.39100000000000001</v>
+        <v>0.5796</v>
       </c>
       <c r="L9">
-        <v>0.70069999999999999</v>
+        <v>0.55820000000000003</v>
       </c>
       <c r="M9">
-        <v>0.27010000000000001</v>
+        <v>0.1883</v>
       </c>
       <c r="N9">
-        <v>0.3256</v>
+        <v>0.68959999999999999</v>
       </c>
       <c r="O9">
-        <v>0.28525</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="P9">
-        <v>0.4158</v>
+        <v>0.66220000000000001</v>
       </c>
       <c r="Q9">
-        <v>0.69179999999999997</v>
+        <v>0.19989999999999999</v>
       </c>
       <c r="R9">
-        <v>7.2950000000000001E-2</v>
+        <v>0.28660000000000002</v>
       </c>
       <c r="S9">
-        <v>0.70104999999999995</v>
+        <v>0.1618</v>
       </c>
       <c r="T9">
-        <v>5.0999999999999997E-2</v>
+        <v>0.23630000000000001</v>
       </c>
       <c r="U9">
-        <v>0.2616</v>
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="V9">
-        <v>0.47985</v>
+        <v>0.51165000000000005</v>
       </c>
       <c r="W9">
-        <v>0.49980000000000002</v>
+        <v>0.70079999999999998</v>
       </c>
       <c r="X9">
-        <v>0.36230000000000001</v>
+        <v>0.2147</v>
       </c>
       <c r="Y9">
-        <v>0.1585</v>
+        <v>0.39945000000000003</v>
       </c>
       <c r="Z9">
-        <v>0.45465</v>
+        <v>0.29285</v>
       </c>
       <c r="AA9">
-        <v>0.41560000000000002</v>
+        <v>0.56059999999999999</v>
       </c>
       <c r="AB9">
-        <v>0.57555000000000001</v>
+        <v>0.21404999999999999</v>
       </c>
       <c r="AC9">
-        <v>0.14199999999999999</v>
+        <v>0.1144</v>
       </c>
       <c r="AD9">
-        <v>0.45945000000000003</v>
+        <v>0.55915000000000004</v>
       </c>
       <c r="AE9">
-        <v>0.61109999999999998</v>
+        <v>0.50580000000000003</v>
       </c>
       <c r="AF9">
-        <v>0.52980000000000005</v>
+        <v>0.55320000000000003</v>
       </c>
       <c r="AG9">
-        <v>0.1893</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="AH9">
-        <v>0.86750000000000005</v>
+        <v>0.52905000000000002</v>
       </c>
       <c r="AI9">
-        <v>0.45040000000000002</v>
+        <v>0.29549999999999998</v>
       </c>
       <c r="AJ9">
-        <v>0.45915</v>
+        <v>0.45240000000000002</v>
       </c>
       <c r="AK9">
-        <v>0.2387</v>
+        <v>0.88185000000000002</v>
       </c>
       <c r="AL9">
-        <v>0.51819999999999999</v>
+        <v>0.48670000000000002</v>
       </c>
       <c r="AM9">
-        <v>0.58314999999999995</v>
+        <v>0.26140000000000002</v>
       </c>
       <c r="AN9">
-        <v>0.47949999999999998</v>
+        <v>0.51495000000000002</v>
       </c>
       <c r="AO9">
-        <v>0.21385000000000001</v>
+        <v>0.69874999999999998</v>
       </c>
       <c r="AP9">
-        <v>0.502</v>
+        <v>0.74714999999999998</v>
       </c>
       <c r="AQ9">
-        <v>0.98660000000000003</v>
+        <v>0.46634999999999999</v>
       </c>
       <c r="AR9">
-        <v>0.22325</v>
+        <v>0.37380000000000002</v>
       </c>
       <c r="AS9">
-        <v>6.2E-2</v>
+        <v>0.47360000000000002</v>
       </c>
       <c r="AT9">
-        <v>0.16489999999999999</v>
+        <v>0.1321</v>
       </c>
       <c r="AU9">
-        <v>0.442</v>
+        <v>0.76949999999999996</v>
       </c>
       <c r="AV9">
-        <v>0.2233</v>
+        <v>0.61429999999999996</v>
       </c>
       <c r="AW9">
-        <v>0.13664999999999999</v>
+        <v>0.63119999999999998</v>
       </c>
       <c r="AX9">
-        <v>0.10034999999999999</v>
+        <v>0.81215000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.58135000000000003</v>
+        <v>0.84130000000000005</v>
       </c>
       <c r="B10">
-        <v>0.44840000000000002</v>
+        <v>0.75214999999999999</v>
       </c>
       <c r="C10">
-        <v>0.4501</v>
+        <v>0.3967</v>
       </c>
       <c r="D10">
-        <v>0.31340000000000001</v>
+        <v>0.24229999999999999</v>
       </c>
       <c r="E10">
-        <v>0.6169</v>
+        <v>0.41339999999999999</v>
       </c>
       <c r="F10">
-        <v>4.4400000000000002E-2</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="G10">
-        <v>0.96025000000000005</v>
+        <v>0.39</v>
       </c>
       <c r="H10">
-        <v>0.3322</v>
+        <v>0.63639999999999997</v>
       </c>
       <c r="I10">
-        <v>0.31585000000000002</v>
+        <v>0.5625</v>
       </c>
       <c r="J10">
-        <v>0.23860000000000001</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="K10">
-        <v>0.35649999999999998</v>
+        <v>0.5887</v>
       </c>
       <c r="L10">
-        <v>0.79695000000000005</v>
+        <v>0.45469999999999999</v>
       </c>
       <c r="M10">
-        <v>0.29020000000000001</v>
+        <v>0.26090000000000002</v>
       </c>
       <c r="N10">
-        <v>0.30780000000000002</v>
+        <v>0.69</v>
       </c>
       <c r="O10">
-        <v>0.16619999999999999</v>
+        <v>0.55279999999999996</v>
       </c>
       <c r="P10">
-        <v>0.50690000000000002</v>
+        <v>0.877</v>
       </c>
       <c r="Q10">
-        <v>0.61729999999999996</v>
+        <v>0.15060000000000001</v>
       </c>
       <c r="R10">
-        <v>0.29315000000000002</v>
+        <v>0.27679999999999999</v>
       </c>
       <c r="S10">
-        <v>0.7</v>
+        <v>0.13414999999999999</v>
       </c>
       <c r="T10">
-        <v>0.113</v>
+        <v>0.29330000000000001</v>
       </c>
       <c r="U10">
-        <v>0.29870000000000002</v>
+        <v>5.5899999999999998E-2</v>
       </c>
       <c r="V10">
-        <v>0.36554999999999999</v>
+        <v>0.45550000000000002</v>
       </c>
       <c r="W10">
-        <v>0.47960000000000003</v>
+        <v>0.42430000000000001</v>
       </c>
       <c r="X10">
-        <v>0.16769999999999999</v>
+        <v>0.3135</v>
       </c>
       <c r="Y10">
-        <v>0.25340000000000001</v>
+        <v>0.6361</v>
       </c>
       <c r="Z10">
-        <v>0.54359999999999997</v>
+        <v>0.37259999999999999</v>
       </c>
       <c r="AA10">
-        <v>0.35820000000000002</v>
+        <v>0.56540000000000001</v>
       </c>
       <c r="AB10">
-        <v>0.66895000000000004</v>
+        <v>0.26860000000000001</v>
       </c>
       <c r="AC10">
-        <v>8.4099999999999994E-2</v>
+        <v>0.39739999999999998</v>
       </c>
       <c r="AD10">
-        <v>0.38505</v>
+        <v>0.49009999999999998</v>
       </c>
       <c r="AE10">
-        <v>0.62819999999999998</v>
+        <v>0.51959999999999995</v>
       </c>
       <c r="AF10">
-        <v>0.27400000000000002</v>
+        <v>0.66415000000000002</v>
       </c>
       <c r="AG10">
-        <v>0.1201</v>
+        <v>0.64319999999999999</v>
       </c>
       <c r="AH10">
-        <v>0.84724999999999995</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="AI10">
-        <v>0.37154999999999999</v>
+        <v>0.3765</v>
       </c>
       <c r="AJ10">
-        <v>0.1711</v>
+        <v>0.55059999999999998</v>
       </c>
       <c r="AK10">
-        <v>0.35859999999999997</v>
+        <v>0.96560000000000001</v>
       </c>
       <c r="AL10">
-        <v>0.37330000000000002</v>
+        <v>0.60419999999999996</v>
       </c>
       <c r="AM10">
-        <v>0.42020000000000002</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="AN10">
-        <v>0.5091</v>
+        <v>0.1588</v>
       </c>
       <c r="AO10">
-        <v>0.3286</v>
+        <v>0.82120000000000004</v>
       </c>
       <c r="AP10">
-        <v>0.55079999999999996</v>
+        <v>0.40934999999999999</v>
       </c>
       <c r="AQ10">
-        <v>0.76229999999999998</v>
+        <v>0.55589999999999995</v>
       </c>
       <c r="AR10">
-        <v>0.30235000000000001</v>
+        <v>0.52969999999999995</v>
       </c>
       <c r="AS10">
-        <v>0.15970000000000001</v>
+        <v>0.67895000000000005</v>
       </c>
       <c r="AT10">
-        <v>0.13420000000000001</v>
+        <v>0.29830000000000001</v>
       </c>
       <c r="AU10">
-        <v>0.48895</v>
+        <v>0.76224999999999998</v>
       </c>
       <c r="AV10">
-        <v>0.4778</v>
+        <v>0.53290000000000004</v>
       </c>
       <c r="AW10">
-        <v>0.36359999999999998</v>
+        <v>0.63929999999999998</v>
       </c>
       <c r="AX10">
-        <v>0.30764999999999998</v>
+        <v>0.90800000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.80174999999999996</v>
+        <v>0.30630000000000002</v>
       </c>
       <c r="B11">
-        <v>0.69310000000000005</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="C11">
-        <v>0.86739999999999995</v>
+        <v>0.38429999999999997</v>
       </c>
       <c r="D11">
-        <v>0.48280000000000001</v>
+        <v>0.41589999999999999</v>
       </c>
       <c r="E11">
-        <v>0.4909</v>
+        <v>0.16</v>
       </c>
       <c r="F11">
-        <v>0.30449999999999999</v>
+        <v>0.21959999999999999</v>
       </c>
       <c r="G11">
-        <v>0.97209999999999996</v>
+        <v>0.45019999999999999</v>
       </c>
       <c r="H11">
-        <v>0.65439999999999998</v>
+        <v>0.50409999999999999</v>
       </c>
       <c r="I11">
-        <v>0.40639999999999998</v>
+        <v>0.40350000000000003</v>
       </c>
       <c r="J11">
-        <v>0.30680000000000002</v>
+        <v>0.48170000000000002</v>
       </c>
       <c r="K11">
-        <v>0.41970000000000002</v>
+        <v>0.4002</v>
       </c>
       <c r="L11">
-        <v>0.5877</v>
+        <v>0.76539999999999997</v>
       </c>
       <c r="M11">
-        <v>0.29370000000000002</v>
+        <v>0.19209999999999999</v>
       </c>
       <c r="N11">
-        <v>0.34179999999999999</v>
+        <v>0.61260000000000003</v>
       </c>
       <c r="O11">
-        <v>0.21129999999999999</v>
+        <v>0.5857</v>
       </c>
       <c r="P11">
-        <v>0.55889999999999995</v>
+        <v>0.73980000000000001</v>
       </c>
       <c r="Q11">
-        <v>0.54759999999999998</v>
+        <v>6.8099999999999994E-2</v>
       </c>
       <c r="R11">
-        <v>0.32719999999999999</v>
+        <v>0.25869999999999999</v>
       </c>
       <c r="S11">
-        <v>0.61960000000000004</v>
+        <v>0.2203</v>
       </c>
       <c r="T11">
-        <v>0.30599999999999999</v>
+        <v>0.38919999999999999</v>
       </c>
       <c r="U11">
-        <v>0.13519999999999999</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="V11">
-        <v>0.5575</v>
+        <v>0.43009999999999998</v>
       </c>
       <c r="W11">
-        <v>0.4496</v>
+        <v>0.40820000000000001</v>
       </c>
       <c r="X11">
-        <v>0.29580000000000001</v>
+        <v>0.3755</v>
       </c>
       <c r="Y11">
-        <v>0.35460000000000003</v>
+        <v>0.76449999999999996</v>
       </c>
       <c r="Z11">
-        <v>0.40739999999999998</v>
+        <v>0.23810000000000001</v>
       </c>
       <c r="AA11">
-        <v>0.15440000000000001</v>
+        <v>0.78305000000000002</v>
       </c>
       <c r="AB11">
-        <v>0.72440000000000004</v>
+        <v>0.37730000000000002</v>
       </c>
       <c r="AC11">
-        <v>0.43009999999999998</v>
+        <v>0.35189999999999999</v>
       </c>
       <c r="AD11">
-        <v>0.55369999999999997</v>
+        <v>0.2268</v>
       </c>
       <c r="AE11">
-        <v>0.57515000000000005</v>
+        <v>0.49530000000000002</v>
       </c>
       <c r="AF11">
-        <v>0.31609999999999999</v>
+        <v>0.7046</v>
       </c>
       <c r="AG11">
-        <v>0.1114</v>
+        <v>0.49919999999999998</v>
       </c>
       <c r="AH11">
-        <v>0.86709999999999998</v>
+        <v>0.48659999999999998</v>
       </c>
       <c r="AI11">
-        <v>0.48010000000000003</v>
+        <v>0.34470000000000001</v>
       </c>
       <c r="AJ11">
-        <v>0.28370000000000001</v>
+        <v>0.62539999999999996</v>
       </c>
       <c r="AK11">
-        <v>0.27539999999999998</v>
+        <v>1</v>
       </c>
       <c r="AL11">
-        <v>0.2145</v>
+        <v>0.42459999999999998</v>
       </c>
       <c r="AM11">
-        <v>0.51500000000000001</v>
+        <v>7.2800000000000004E-2</v>
       </c>
       <c r="AN11">
-        <v>0.62909999999999999</v>
+        <v>0.2777</v>
       </c>
       <c r="AO11">
-        <v>0.38990000000000002</v>
+        <v>0.6825</v>
       </c>
       <c r="AP11">
-        <v>0.5655</v>
+        <v>0.24229999999999999</v>
       </c>
       <c r="AQ11">
-        <v>0.79220000000000002</v>
+        <v>0.20519999999999999</v>
       </c>
       <c r="AR11">
-        <v>0.15190000000000001</v>
+        <v>0.58940000000000003</v>
       </c>
       <c r="AS11">
-        <v>0.25009999999999999</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="AT11">
-        <v>0.23069999999999999</v>
+        <v>0.2109</v>
       </c>
       <c r="AU11">
-        <v>0.4713</v>
+        <v>0.7903</v>
       </c>
       <c r="AV11">
-        <v>0.27529999999999999</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="AW11">
-        <v>0.51729999999999998</v>
+        <v>0.60309999999999997</v>
       </c>
       <c r="AX11">
-        <v>0.44224999999999998</v>
+        <v>0.94550000000000001</v>
       </c>
     </row>
   </sheetData>
